--- a/2020_08_18/data/cases.xlsx
+++ b/2020_08_18/data/cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21000" windowHeight="8675" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21000" windowHeight="8675" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,13 +18,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <name val="等线"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="等线"/>
@@ -39,13 +58,6 @@
       <charset val="134"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
     </font>
@@ -73,7 +85,89 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -87,23 +181,32 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -118,102 +221,11 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -224,25 +236,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,157 +404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,17 +456,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +489,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -498,13 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,18 +545,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -559,34 +571,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
@@ -595,121 +610,122 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1042,52 +1058,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1097,12 +1113,12 @@
           <t>注册成功-带注册名</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1124,10 +1140,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1137,12 +1153,12 @@
           <t>成功-不带用户名</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="12" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1164,25 +1180,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>不输入手机号</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E4" s="13" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1192,7 +1208,7 @@
           <t>{"pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"手机号为空"}</t>
         </is>
@@ -1204,25 +1220,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>手机号长度10位</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1232,7 +1248,7 @@
           <t>{"mobile_phone":"1550000000","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1244,25 +1260,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>手机号长度12位</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" s="9" t="inlineStr">
+      <c r="E6" s="13" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1272,7 +1288,7 @@
           <t>{"mobile_phone":"155000000001","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式",}</t>
         </is>
@@ -1284,25 +1300,25 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>手机号含有非法字符</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="E7" s="13" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1312,7 +1328,7 @@
           <t>{"mobile_phone":"1550000000q","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1324,25 +1340,25 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>已注册过的手机号</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="E8" s="13" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1352,7 +1368,7 @@
           <t>{"mobile_phone":"15500000000","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"账号已存在"}</t>
         </is>
@@ -1364,25 +1380,25 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>密码7位</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="E9" s="13" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1392,7 +1408,7 @@
           <t>{"mobile_phone":"15500056781","pwd":"1234567","type":1}</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1404,25 +1420,25 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>密码17位</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="E10" s="13" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1432,7 +1448,7 @@
           <t>{"mobile_phone":"15500000001","pwd":"12345678901234567","type":1}</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1444,25 +1460,25 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>不输入密码</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="E11" s="13" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1472,7 +1488,7 @@
           <t>{"mobile_phone":"13300000001","type":1}</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"密码为空"}</t>
         </is>
@@ -1484,35 +1500,35 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="C12" s="15" t="inlineStr">
         <is>
           <t>注册名11位</t>
         </is>
       </c>
-      <c r="D12" s="10" t="inlineStr">
+      <c r="D12" s="14" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E12" s="12" t="inlineStr">
+      <c r="E12" s="16" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F12" s="13" t="inlineStr">
+      <c r="F12" s="17" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13303007856","pwd":"12345678","type":1,"reg_name":"12345678909991"}</t>
         </is>
       </c>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="14" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"用户昵称长度超过10位"}</t>
         </is>
@@ -1524,25 +1540,25 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>类型输入非0，1内容</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E13" s="9" t="inlineStr">
+      <c r="E13" s="13" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1552,7 +1568,7 @@
           <t>{"mobile_phone":"13300003456","pwd":"12345678","type":2}</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"不支持的用户类型"}</t>
         </is>
@@ -1564,25 +1580,25 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>不输入类型</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E14" s="9" t="inlineStr">
+      <c r="E14" s="13" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1592,7 +1608,7 @@
           <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -1621,8 +1637,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.87962962962963" defaultRowHeight="13.8" outlineLevelRow="6"/>
@@ -1635,72 +1651,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150","pwd":"12345678"}</t>
         </is>
@@ -1717,110 +1733,110 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="7" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="7" t="inlineStr">
         <is>
           <t>{"pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '手机号码为空'}</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>密码为空</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150",}</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G4" s="9" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '密码为空'}</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="H4" s="9" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>手机号未注册</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878151","pwd":"12345666"}</t>
         </is>
@@ -1837,30 +1853,30 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>密码错误</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150","pwd":"12345679"}</t>
         </is>
@@ -1877,30 +1893,30 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>手机号格式错误</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>{"mobile_phone":"12345678912","pwd":"12345678"}</t>
         </is>
@@ -1936,78 +1952,77 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="19.7777777777778" customWidth="1" min="3" max="3"/>
+    <col width="9.111111111111111" customWidth="1" min="2" max="2"/>
+    <col width="23.1111111111111" customWidth="1" min="3" max="3"/>
     <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
     <col width="18.7777777777778" customWidth="1" min="5" max="5"/>
-    <col width="40.8888888888889" customWidth="1" min="6" max="6"/>
-    <col width="40" customWidth="1" min="7" max="7"/>
-    <col width="6.33333333333333" customWidth="1" min="8" max="8"/>
+    <col width="53.5555555555556" customWidth="1" min="6" max="6"/>
+    <col width="57.7777777777778" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="14.4" customHeight="1">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>top_up</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>充值成功</t>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>充值成功-整数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2020,14 +2035,14 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>{"member_id":"533","amount":"1"}</t>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"ok"}</t>
+          <t>{"code":0,"msg":"OK"}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2036,18 +2051,18 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="14.4" customHeight="1">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>top_up</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>id错误</t>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>充值成功-1位小数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2060,29 +2075,34 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>{"member_id":"111111","amount":"1"}</t>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600.1}</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"会员不存在"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>top_up</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>不输入id</t>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>充值成功-2位小数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2095,29 +2115,34 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>{"amount":"1"}</t>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600.22}</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"会员不存在"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>top_up</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>不输入金额</t>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>充值成功-50万</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2130,29 +2155,34 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>{"member_id":"533"}</t>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":500000}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"余额为空"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
       <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>top_up</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>充值金额为负数</t>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>会员id为空</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2165,29 +2195,34 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>{"member_id":"533","amount":"-1"}</t>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>{"amount":600}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"余额必须大于0并且小于或者等于500000"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+          <t>{"code":1,"msg":"用户id为空"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
       <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>top_up</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>充值金额为500001</t>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>id不是当前登录的用户</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2200,64 +2235,74 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>{"member_id":"533","amount":"500001"}</t>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": "98989898","amount":600}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"余额必须大于0并且小于或者等于500000"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+          <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>top_up</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>充值金额非数字</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>会员id为字符串</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>{"member_id":"533","amount":"a"}</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":600}</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
-    </row>
-    <row r="9">
+      <c r="H8" s="9" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
       <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>top_up</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>充值金额小数点3位</t>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>会员id为小数</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2270,14 +2315,259 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>{"member_id":"533","amount":"1.111"}</t>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": float(#member_id#), "amount":600}</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>{"code":2,"msg":"数字格式化异常"}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>充值金额为0</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 0}</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="14.4" customHeight="1">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>充值金额为负数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": -600}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="14.4" customHeight="1">
+      <c r="A12" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>充值金额为空</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#}</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"充值金额为空"}</t>
+        </is>
+      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="14.4" customHeight="1">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>充值金额-3位小数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 600.222}</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>{"code":2,"msg":"余额小数超过两位"}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="14.4" customHeight="1">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>充值金额-大于50万</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 500001}</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="14.4" customHeight="1">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>充值金额-非数字</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": "5万"}</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数字格式化异常"}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>

--- a/2020_08_18/data/cases.xlsx
+++ b/2020_08_18/data/cases.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21000" windowHeight="8675" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -29,7 +30,19 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
     </font>
     <font>
@@ -38,12 +51,6 @@
       <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="等线"/>
@@ -98,13 +105,6 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -130,6 +130,28 @@
       <name val="等线"/>
       <charset val="0"/>
       <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -167,22 +189,8 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -205,8 +213,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -222,7 +229,7 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -248,31 +255,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,13 +291,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,61 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,13 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,19 +399,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,15 +466,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -492,8 +490,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,21 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -542,27 +560,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -571,161 +578,164 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1058,52 +1068,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1113,12 +1123,12 @@
           <t>注册成功-带注册名</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" s="12" t="inlineStr">
+      <c r="E2" s="15" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1140,10 +1150,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1153,12 +1163,12 @@
           <t>成功-不带用户名</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" s="12" t="inlineStr">
+      <c r="E3" s="15" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1180,25 +1190,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>不输入手机号</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" s="13" t="inlineStr">
+      <c r="E4" s="16" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1208,7 +1218,7 @@
           <t>{"pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"手机号为空"}</t>
         </is>
@@ -1220,25 +1230,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>手机号长度10位</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="16" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1248,7 +1258,7 @@
           <t>{"mobile_phone":"1550000000","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1260,25 +1270,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>手机号长度12位</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" s="13" t="inlineStr">
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1288,7 +1298,7 @@
           <t>{"mobile_phone":"155000000001","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式",}</t>
         </is>
@@ -1300,25 +1310,25 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>手机号含有非法字符</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" s="13" t="inlineStr">
+      <c r="E7" s="16" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1328,7 +1338,7 @@
           <t>{"mobile_phone":"1550000000q","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="G7" s="6" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1340,25 +1350,25 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>已注册过的手机号</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" s="13" t="inlineStr">
+      <c r="E8" s="16" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1368,7 +1378,7 @@
           <t>{"mobile_phone":"15500000000","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"账号已存在"}</t>
         </is>
@@ -1380,25 +1390,25 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="C9" s="14" t="inlineStr">
         <is>
           <t>密码7位</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E9" s="13" t="inlineStr">
+      <c r="E9" s="16" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1408,7 +1418,7 @@
           <t>{"mobile_phone":"15500056781","pwd":"1234567","type":1}</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="G9" s="6" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1420,25 +1430,25 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>密码17位</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E10" s="13" t="inlineStr">
+      <c r="E10" s="16" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1448,7 +1458,7 @@
           <t>{"mobile_phone":"15500000001","pwd":"12345678901234567","type":1}</t>
         </is>
       </c>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1460,25 +1470,25 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="C11" s="14" t="inlineStr">
         <is>
           <t>不输入密码</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="E11" s="16" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1488,7 +1498,7 @@
           <t>{"mobile_phone":"13300000001","type":1}</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr">
+      <c r="G11" s="6" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"密码为空"}</t>
         </is>
@@ -1500,35 +1510,35 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="n">
+      <c r="A12" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="inlineStr">
+      <c r="B12" s="17" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C12" s="15" t="inlineStr">
+      <c r="C12" s="18" t="inlineStr">
         <is>
           <t>注册名11位</t>
         </is>
       </c>
-      <c r="D12" s="14" t="inlineStr">
+      <c r="D12" s="17" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E12" s="16" t="inlineStr">
+      <c r="E12" s="19" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F12" s="17" t="inlineStr">
+      <c r="F12" s="20" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13303007856","pwd":"12345678","type":1,"reg_name":"12345678909991"}</t>
         </is>
       </c>
-      <c r="G12" s="14" t="inlineStr">
+      <c r="G12" s="17" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"用户昵称长度超过10位"}</t>
         </is>
@@ -1540,25 +1550,25 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="C13" s="14" t="inlineStr">
         <is>
           <t>类型输入非0，1内容</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E13" s="13" t="inlineStr">
+      <c r="E13" s="16" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1568,7 +1578,7 @@
           <t>{"mobile_phone":"13300003456","pwd":"12345678","type":2}</t>
         </is>
       </c>
-      <c r="G13" s="5" t="inlineStr">
+      <c r="G13" s="6" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"不支持的用户类型"}</t>
         </is>
@@ -1580,25 +1590,25 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="14" t="inlineStr">
         <is>
           <t>不输入类型</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E14" s="13" t="inlineStr">
+      <c r="E14" s="16" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1608,7 +1618,7 @@
           <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="G14" s="6" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -1651,72 +1661,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="10" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150","pwd":"12345678"}</t>
         </is>
@@ -1733,110 +1743,110 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="12" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>{"pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G3" s="9" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '手机号码为空'}</t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="13" t="inlineStr">
         <is>
           <t>密码为空</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150",}</t>
         </is>
       </c>
-      <c r="G4" s="9" t="inlineStr">
+      <c r="G4" s="8" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '密码为空'}</t>
         </is>
       </c>
-      <c r="H4" s="9" t="inlineStr">
+      <c r="H4" s="8" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>手机号未注册</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878151","pwd":"12345666"}</t>
         </is>
@@ -1853,30 +1863,30 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>密码错误</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="10" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150","pwd":"12345679"}</t>
         </is>
@@ -1893,30 +1903,30 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>手机号格式错误</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>{"mobile_phone":"12345678912","pwd":"12345678"}</t>
         </is>
@@ -1954,7 +1964,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
@@ -1970,42 +1980,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -2020,7 +2030,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>充值成功-整数</t>
         </is>
@@ -2035,7 +2045,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600}</t>
         </is>
@@ -2060,7 +2070,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>充值成功-1位小数</t>
         </is>
@@ -2075,7 +2085,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="7" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.1}</t>
         </is>
@@ -2100,7 +2110,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>充值成功-2位小数</t>
         </is>
@@ -2115,7 +2125,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.22}</t>
         </is>
@@ -2140,7 +2150,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>充值成功-50万</t>
         </is>
@@ -2155,7 +2165,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":500000}</t>
         </is>
@@ -2180,7 +2190,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>会员id为空</t>
         </is>
@@ -2195,7 +2205,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="7" t="inlineStr">
         <is>
           <t>{"amount":600}</t>
         </is>
@@ -2220,7 +2230,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>id不是当前登录的用户</t>
         </is>
@@ -2235,7 +2245,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="7" t="inlineStr">
         <is>
           <t>{"member_id": "98989898","amount":600}</t>
         </is>
@@ -2252,40 +2262,40 @@
       </c>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>会员id为字符串</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>{"member_id": "#member_id#","amount":600}</t>
         </is>
       </c>
-      <c r="G8" s="9" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
-      <c r="H8" s="9" t="inlineStr">
+      <c r="H8" s="8" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -2300,7 +2310,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t>会员id为小数</t>
         </is>
@@ -2315,7 +2325,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr">
         <is>
           <t>{"member_id": float(#member_id#), "amount":600}</t>
         </is>
@@ -2332,40 +2342,40 @@
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>充值金额为0</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 0}</t>
         </is>
       </c>
-      <c r="G10" s="9" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H10" s="9" t="inlineStr">
+      <c r="H10" s="8" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -2380,7 +2390,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>充值金额为负数</t>
         </is>
@@ -2395,7 +2405,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="7" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": -600}</t>
         </is>
@@ -2412,40 +2422,40 @@
       </c>
     </row>
     <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>充值金额为空</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#}</t>
         </is>
       </c>
-      <c r="G12" s="9" t="inlineStr">
+      <c r="G12" s="8" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"充值金额为空"}</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -2460,7 +2470,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="7" t="inlineStr">
         <is>
           <t>充值金额-3位小数</t>
         </is>
@@ -2475,7 +2485,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" s="7" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 600.222}</t>
         </is>
@@ -2500,7 +2510,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t>充值金额-大于50万</t>
         </is>
@@ -2515,7 +2525,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" s="7" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 500001}</t>
         </is>
@@ -2540,7 +2550,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>充值金额-非数字</t>
         </is>
@@ -2555,7 +2565,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="7" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": "5万"}</t>
         </is>
@@ -2566,6 +2576,703 @@
         </is>
       </c>
       <c r="H15" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="19.7777777777778" customWidth="1" min="3" max="3"/>
+    <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
+    <col width="19.2222222222222" customWidth="1" min="5" max="5"/>
+    <col width="42.8888888888889" customWidth="1" min="6" max="6"/>
+    <col width="57.7777777777778" customWidth="1" min="7" max="7"/>
+    <col width="7.66666666666667" customWidth="1" min="8" max="8"/>
+    <col width="11.6666666666667" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="14.4" customHeight="1">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#phone#","pwd":"#pwd#"}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK'}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>提现成功-整数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>提现成功-1位小数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600.1}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>提现成功-2位小数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600.22}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>提现成功-50万</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":500000}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>会员id为空</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>{"amount":600}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"会员id为空"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>会员id不存在</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>{"member_id": "98989898","amount":600}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "会员不存在"}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>会员id为字符串</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":600}</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数字格式化异常"}</t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>会员id为小数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>{"member_id": 1.0, "amount":600}</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数值参数格式不正确"}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="14.4" customHeight="1">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>提现金额为0</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 0}</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="14.4" customHeight="1">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>提现金额为负数</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": -600}</t>
+        </is>
+      </c>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="14.4" customHeight="1">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>提现金额为空</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#}</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"余额为空"}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="14.4" customHeight="1">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>提现金额-3位小数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 600.222}</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额小数超过两位"}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="14.4" customHeight="1">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>提现金额-大于50万</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 500001}</t>
+        </is>
+      </c>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="14.4" customHeight="1">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>提现金额-非数字</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": "5万"}</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数值参数格式不正确"}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>通过</t>
         </is>

--- a/2020_08_18/data/cases.xlsx
+++ b/2020_08_18/data/cases.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -30,13 +31,13 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -91,9 +92,18 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
+      <charset val="134"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,25 +115,9 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,7 +138,7 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -158,32 +152,16 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,13 +191,6 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
@@ -228,9 +199,39 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -243,7 +244,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +268,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,73 +340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,31 +352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +370,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,31 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +467,63 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -490,23 +547,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,57 +561,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -578,147 +579,155 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
@@ -1068,52 +1077,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1123,7 +1132,7 @@
           <t>注册成功-带注册名</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1150,10 +1159,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1163,7 +1172,7 @@
           <t>成功-不带用户名</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1190,10 +1199,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1203,7 +1212,7 @@
           <t>不输入手机号</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1218,7 +1227,7 @@
           <t>{"pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"手机号为空"}</t>
         </is>
@@ -1230,10 +1239,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1243,7 +1252,7 @@
           <t>手机号长度10位</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1258,7 +1267,7 @@
           <t>{"mobile_phone":"1550000000","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1270,10 +1279,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1283,7 +1292,7 @@
           <t>手机号长度12位</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1298,7 +1307,7 @@
           <t>{"mobile_phone":"155000000001","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式",}</t>
         </is>
@@ -1310,10 +1319,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1323,7 +1332,7 @@
           <t>手机号含有非法字符</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1338,7 +1347,7 @@
           <t>{"mobile_phone":"1550000000q","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G7" s="6" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1350,10 +1359,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1363,7 +1372,7 @@
           <t>已注册过的手机号</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1378,7 +1387,7 @@
           <t>{"mobile_phone":"15500000000","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"账号已存在"}</t>
         </is>
@@ -1390,10 +1399,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1403,7 +1412,7 @@
           <t>密码7位</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1418,7 +1427,7 @@
           <t>{"mobile_phone":"15500056781","pwd":"1234567","type":1}</t>
         </is>
       </c>
-      <c r="G9" s="6" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1430,10 +1439,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1443,7 +1452,7 @@
           <t>密码17位</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1458,7 +1467,7 @@
           <t>{"mobile_phone":"15500000001","pwd":"12345678901234567","type":1}</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1470,10 +1479,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1483,7 +1492,7 @@
           <t>不输入密码</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1498,7 +1507,7 @@
           <t>{"mobile_phone":"13300000001","type":1}</t>
         </is>
       </c>
-      <c r="G11" s="6" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"密码为空"}</t>
         </is>
@@ -1550,10 +1559,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1563,7 +1572,7 @@
           <t>类型输入非0，1内容</t>
         </is>
       </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1578,7 +1587,7 @@
           <t>{"mobile_phone":"13300003456","pwd":"12345678","type":2}</t>
         </is>
       </c>
-      <c r="G13" s="6" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"不支持的用户类型"}</t>
         </is>
@@ -1590,10 +1599,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1603,7 +1612,7 @@
           <t>不输入类型</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1618,7 +1627,7 @@
           <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -1661,62 +1670,62 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -1726,7 +1735,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150","pwd":"12345678"}</t>
         </is>
@@ -1771,12 +1780,12 @@
           <t>{"pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '手机号码为空'}</t>
         </is>
       </c>
-      <c r="H3" s="8" t="inlineStr">
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1811,22 +1820,22 @@
           <t>{"mobile_phone":"13641878150",}</t>
         </is>
       </c>
-      <c r="G4" s="8" t="inlineStr">
+      <c r="G4" s="9" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '密码为空'}</t>
         </is>
       </c>
-      <c r="H4" s="8" t="inlineStr">
+      <c r="H4" s="9" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>login</t>
         </is>
@@ -1836,7 +1845,7 @@
           <t>手机号未注册</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -1846,7 +1855,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878151","pwd":"12345666"}</t>
         </is>
@@ -1863,10 +1872,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>login</t>
         </is>
@@ -1876,7 +1885,7 @@
           <t>密码错误</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -1886,7 +1895,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150","pwd":"12345679"}</t>
         </is>
@@ -1903,10 +1912,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>login</t>
         </is>
@@ -1916,7 +1925,7 @@
           <t>手机号格式错误</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -1926,7 +1935,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"12345678912","pwd":"12345678"}</t>
         </is>
@@ -1980,42 +1989,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -2030,7 +2039,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>充值成功-整数</t>
         </is>
@@ -2045,7 +2054,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600}</t>
         </is>
@@ -2070,7 +2079,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>充值成功-1位小数</t>
         </is>
@@ -2085,7 +2094,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.1}</t>
         </is>
@@ -2110,7 +2119,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>充值成功-2位小数</t>
         </is>
@@ -2125,7 +2134,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.22}</t>
         </is>
@@ -2150,7 +2159,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>充值成功-50万</t>
         </is>
@@ -2165,7 +2174,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":500000}</t>
         </is>
@@ -2190,7 +2199,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>会员id为空</t>
         </is>
@@ -2205,7 +2214,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>{"amount":600}</t>
         </is>
@@ -2230,7 +2239,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>id不是当前登录的用户</t>
         </is>
@@ -2245,7 +2254,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>{"member_id": "98989898","amount":600}</t>
         </is>
@@ -2262,40 +2271,40 @@
       </c>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>会员id为字符串</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>{"member_id": "#member_id#","amount":600}</t>
         </is>
       </c>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="9" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="9" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -2310,7 +2319,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>会员id为小数</t>
         </is>
@@ -2325,7 +2334,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>{"member_id": float(#member_id#), "amount":600}</t>
         </is>
@@ -2342,40 +2351,40 @@
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>充值金额为0</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 0}</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr">
+      <c r="G10" s="9" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -2390,7 +2399,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>充值金额为负数</t>
         </is>
@@ -2405,7 +2414,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": -600}</t>
         </is>
@@ -2422,40 +2431,40 @@
       </c>
     </row>
     <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>充值金额为空</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="8" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#}</t>
         </is>
       </c>
-      <c r="G12" s="8" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"充值金额为空"}</t>
         </is>
       </c>
-      <c r="H12" s="8" t="inlineStr">
+      <c r="H12" s="9" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -2470,7 +2479,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>充值金额-3位小数</t>
         </is>
@@ -2485,7 +2494,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 600.222}</t>
         </is>
@@ -2510,7 +2519,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>充值金额-大于50万</t>
         </is>
@@ -2525,7 +2534,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F14" s="7" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 500001}</t>
         </is>
@@ -2550,7 +2559,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>充值金额-非数字</t>
         </is>
@@ -2565,7 +2574,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": "5万"}</t>
         </is>
@@ -2594,7 +2603,7 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2612,42 +2621,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -2659,20 +2668,20 @@
       </c>
     </row>
     <row r="2" ht="14.4" customHeight="1">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2682,7 +2691,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"#pwd#"}</t>
         </is>
@@ -2707,7 +2716,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>提现成功-整数</t>
         </is>
@@ -2722,7 +2731,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600}</t>
         </is>
@@ -2752,7 +2761,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>提现成功-1位小数</t>
         </is>
@@ -2767,7 +2776,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.1}</t>
         </is>
@@ -2797,7 +2806,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>提现成功-2位小数</t>
         </is>
@@ -2812,7 +2821,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.22}</t>
         </is>
@@ -2842,7 +2851,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>提现成功-50万</t>
         </is>
@@ -2857,7 +2866,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":500000}</t>
         </is>
@@ -2887,7 +2896,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>会员id为空</t>
         </is>
@@ -2902,7 +2911,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>{"amount":600}</t>
         </is>
@@ -2927,7 +2936,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>会员id不存在</t>
         </is>
@@ -2942,7 +2951,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>{"member_id": "98989898","amount":600}</t>
         </is>
@@ -2967,32 +2976,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>会员id为字符串</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>{"member_id": "#member_id#","amount":600}</t>
         </is>
       </c>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="9" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3007,7 +3016,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>会员id为小数</t>
         </is>
@@ -3022,7 +3031,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>{"member_id": 1.0, "amount":600}</t>
         </is>
@@ -3047,32 +3056,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>提现金额为0</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 0}</t>
         </is>
       </c>
-      <c r="G11" s="8" t="inlineStr">
+      <c r="G11" s="9" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr">
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3087,32 +3096,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>提现金额为负数</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="8" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": -600}</t>
         </is>
       </c>
-      <c r="G12" s="8" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
         </is>
       </c>
-      <c r="H12" s="8" t="inlineStr">
+      <c r="H12" s="9" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3127,7 +3136,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>提现金额为空</t>
         </is>
@@ -3142,7 +3151,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#}</t>
         </is>
@@ -3167,7 +3176,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>提现金额-3位小数</t>
         </is>
@@ -3182,7 +3191,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F14" s="7" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 600.222}</t>
         </is>
@@ -3207,32 +3216,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>提现金额-大于50万</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E15" s="9" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F15" s="9" t="inlineStr">
+      <c r="F15" s="8" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 500001}</t>
         </is>
       </c>
-      <c r="G15" s="8" t="inlineStr">
+      <c r="G15" s="9" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H15" s="8" t="inlineStr">
+      <c r="H15" s="9" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3247,7 +3256,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>提现金额-非数字</t>
         </is>
@@ -3262,7 +3271,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F16" s="7" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": "5万"}</t>
         </is>
@@ -3273,6 +3282,564 @@
         </is>
       </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="15.2222222222222" customWidth="1" min="5" max="5"/>
+    <col width="89.7777777777778" customWidth="1" style="1" min="6" max="6"/>
+    <col width="41.6666666666667" customWidth="1" min="7" max="7"/>
+    <col width="6.33333333333333" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="14.4" customHeight="1">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>借款人正常登录</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="28.8" customHeight="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>加标成功</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SELECT * FROM loan WHERE member_id=#admin_member_id#;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="28.8" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>加标失败—借款人id为空</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>{"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"用户id为空"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="28.8" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>加标失败—标题为空</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id":#admin_member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"标题为空"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="28.8" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>加标失败—借款金额为空</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"借款金额为空"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="28.8" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>加标失败—年利率为空</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"利率为空"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="28.8" customHeight="1">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>加标失败—借款期限为空</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"借款期限为空"}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="28.8" customHeight="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>加标失败—借款期限类型为空</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"借款日期类型为空"}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="28.8" customHeight="1">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>加标失败—竞标天数为空</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"竞标期限为空"}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="28.8" customHeight="1">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>加标失败—借款人id不是当前登录用户</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id":#admin_member_id#+1,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="28.8" customHeight="1">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>加标失败—借款金额为负数</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"借款金额范围错误"}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="28.8" customHeight="1">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>加标失败—借款金额为小数</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"借款金额范围错误"}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>通过</t>
         </is>

--- a/2020_08_18/data/cases.xlsx
+++ b/2020_08_18/data/cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="audit" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="invest" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -92,10 +94,9 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <color rgb="FF0000FF"/>
+      <charset val="0"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,13 +104,35 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -123,52 +146,29 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -177,6 +177,14 @@
       <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -192,14 +200,15 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -208,30 +217,23 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -244,19 +246,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,19 +276,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,31 +318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,13 +336,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,19 +378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +396,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,43 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,38 +469,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,35 +507,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,16 +552,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -579,150 +581,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1077,52 +1082,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1132,12 +1137,12 @@
           <t>注册成功-带注册名</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" s="15" t="inlineStr">
+      <c r="E2" s="16" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1159,10 +1164,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1172,12 +1177,12 @@
           <t>成功-不带用户名</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" s="15" t="inlineStr">
+      <c r="E3" s="16" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1199,25 +1204,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>不输入手机号</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" s="16" t="inlineStr">
+      <c r="E4" s="17" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1227,7 +1232,7 @@
           <t>{"pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"手机号为空"}</t>
         </is>
@@ -1239,25 +1244,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>手机号长度10位</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" s="16" t="inlineStr">
+      <c r="E5" s="17" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1267,7 +1272,7 @@
           <t>{"mobile_phone":"1550000000","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1279,25 +1284,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
+      <c r="C6" s="15" t="inlineStr">
         <is>
           <t>手机号长度12位</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" s="16" t="inlineStr">
+      <c r="E6" s="17" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1307,7 +1312,7 @@
           <t>{"mobile_phone":"155000000001","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式",}</t>
         </is>
@@ -1319,25 +1324,25 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C7" s="14" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>手机号含有非法字符</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" s="16" t="inlineStr">
+      <c r="E7" s="17" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1347,7 +1352,7 @@
           <t>{"mobile_phone":"1550000000q","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1359,25 +1364,25 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C8" s="14" t="inlineStr">
+      <c r="C8" s="15" t="inlineStr">
         <is>
           <t>已注册过的手机号</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="1" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" s="16" t="inlineStr">
+      <c r="E8" s="17" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1387,7 +1392,7 @@
           <t>{"mobile_phone":"15500000000","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"账号已存在"}</t>
         </is>
@@ -1399,25 +1404,25 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C9" s="14" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
         <is>
           <t>密码7位</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="1" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E9" s="16" t="inlineStr">
+      <c r="E9" s="17" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1427,7 +1432,7 @@
           <t>{"mobile_phone":"15500056781","pwd":"1234567","type":1}</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1439,25 +1444,25 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C10" s="14" t="inlineStr">
+      <c r="C10" s="15" t="inlineStr">
         <is>
           <t>密码17位</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="1" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E10" s="16" t="inlineStr">
+      <c r="E10" s="17" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1467,7 +1472,7 @@
           <t>{"mobile_phone":"15500000001","pwd":"12345678901234567","type":1}</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1479,25 +1484,25 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C11" s="14" t="inlineStr">
+      <c r="C11" s="15" t="inlineStr">
         <is>
           <t>不输入密码</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E11" s="16" t="inlineStr">
+      <c r="E11" s="17" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1507,7 +1512,7 @@
           <t>{"mobile_phone":"13300000001","type":1}</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"密码为空"}</t>
         </is>
@@ -1519,35 +1524,35 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="n">
+      <c r="A12" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="inlineStr">
+      <c r="B12" s="18" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C12" s="18" t="inlineStr">
+      <c r="C12" s="19" t="inlineStr">
         <is>
           <t>注册名11位</t>
         </is>
       </c>
-      <c r="D12" s="17" t="inlineStr">
+      <c r="D12" s="18" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E12" s="19" t="inlineStr">
+      <c r="E12" s="20" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F12" s="20" t="inlineStr">
+      <c r="F12" s="21" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13303007856","pwd":"12345678","type":1,"reg_name":"12345678909991"}</t>
         </is>
       </c>
-      <c r="G12" s="17" t="inlineStr">
+      <c r="G12" s="18" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"用户昵称长度超过10位"}</t>
         </is>
@@ -1559,25 +1564,25 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C13" s="14" t="inlineStr">
+      <c r="C13" s="15" t="inlineStr">
         <is>
           <t>类型输入非0，1内容</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E13" s="16" t="inlineStr">
+      <c r="E13" s="17" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1587,7 +1592,7 @@
           <t>{"mobile_phone":"13300003456","pwd":"12345678","type":2}</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"不支持的用户类型"}</t>
         </is>
@@ -1599,25 +1604,25 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C14" s="14" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>不输入类型</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="1" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="17" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1627,7 +1632,7 @@
           <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="G14" s="1" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -1670,72 +1675,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="10" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="11" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150","pwd":"12345678"}</t>
         </is>
@@ -1752,110 +1757,110 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="C3" s="12" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="inlineStr">
+      <c r="D3" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="13" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F3" s="12" t="inlineStr">
         <is>
           <t>{"pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G3" s="9" t="inlineStr">
+      <c r="G3" s="10" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '手机号码为空'}</t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
+      <c r="H3" s="10" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>密码为空</t>
         </is>
       </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="13" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150",}</t>
         </is>
       </c>
-      <c r="G4" s="9" t="inlineStr">
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '密码为空'}</t>
         </is>
       </c>
-      <c r="H4" s="9" t="inlineStr">
+      <c r="H4" s="10" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>手机号未注册</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878151","pwd":"12345666"}</t>
         </is>
@@ -1872,30 +1877,30 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
+      <c r="C6" s="15" t="inlineStr">
         <is>
           <t>密码错误</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" s="10" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150","pwd":"12345679"}</t>
         </is>
@@ -1912,30 +1917,30 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C7" s="14" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>手机号格式错误</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E7" s="10" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>{"mobile_phone":"12345678912","pwd":"12345678"}</t>
         </is>
@@ -1989,42 +1994,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -2039,7 +2044,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>充值成功-整数</t>
         </is>
@@ -2054,7 +2059,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600}</t>
         </is>
@@ -2079,7 +2084,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>充值成功-1位小数</t>
         </is>
@@ -2094,7 +2099,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.1}</t>
         </is>
@@ -2119,7 +2124,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>充值成功-2位小数</t>
         </is>
@@ -2134,7 +2139,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.22}</t>
         </is>
@@ -2159,7 +2164,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>充值成功-50万</t>
         </is>
@@ -2174,7 +2179,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":500000}</t>
         </is>
@@ -2199,7 +2204,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>会员id为空</t>
         </is>
@@ -2214,7 +2219,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>{"amount":600}</t>
         </is>
@@ -2239,7 +2244,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>id不是当前登录的用户</t>
         </is>
@@ -2254,7 +2259,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>{"member_id": "98989898","amount":600}</t>
         </is>
@@ -2271,40 +2276,40 @@
       </c>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>会员id为字符串</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>{"member_id": "#member_id#","amount":600}</t>
         </is>
       </c>
-      <c r="G8" s="9" t="inlineStr">
+      <c r="G8" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
-      <c r="H8" s="9" t="inlineStr">
+      <c r="H8" s="10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -2319,7 +2324,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>会员id为小数</t>
         </is>
@@ -2334,7 +2339,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>{"member_id": float(#member_id#), "amount":600}</t>
         </is>
@@ -2351,40 +2356,40 @@
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>充值金额为0</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 0}</t>
         </is>
       </c>
-      <c r="G10" s="9" t="inlineStr">
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H10" s="9" t="inlineStr">
+      <c r="H10" s="10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -2399,7 +2404,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>充值金额为负数</t>
         </is>
@@ -2414,7 +2419,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": -600}</t>
         </is>
@@ -2431,40 +2436,40 @@
       </c>
     </row>
     <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="10" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>充值金额为空</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#}</t>
         </is>
       </c>
-      <c r="G12" s="9" t="inlineStr">
+      <c r="G12" s="10" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"充值金额为空"}</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -2479,7 +2484,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>充值金额-3位小数</t>
         </is>
@@ -2494,7 +2499,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 600.222}</t>
         </is>
@@ -2519,7 +2524,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>充值金额-大于50万</t>
         </is>
@@ -2534,7 +2539,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 500001}</t>
         </is>
@@ -2559,7 +2564,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>充值金额-非数字</t>
         </is>
@@ -2574,7 +2579,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": "5万"}</t>
         </is>
@@ -2621,42 +2626,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -2668,20 +2673,20 @@
       </c>
     </row>
     <row r="2" ht="14.4" customHeight="1">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2691,7 +2696,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"#pwd#"}</t>
         </is>
@@ -2716,7 +2721,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>提现成功-整数</t>
         </is>
@@ -2731,7 +2736,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600}</t>
         </is>
@@ -2761,7 +2766,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>提现成功-1位小数</t>
         </is>
@@ -2776,7 +2781,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.1}</t>
         </is>
@@ -2806,7 +2811,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>提现成功-2位小数</t>
         </is>
@@ -2821,7 +2826,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.22}</t>
         </is>
@@ -2851,7 +2856,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>提现成功-50万</t>
         </is>
@@ -2866,7 +2871,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":500000}</t>
         </is>
@@ -2896,7 +2901,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>会员id为空</t>
         </is>
@@ -2911,7 +2916,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>{"amount":600}</t>
         </is>
@@ -2936,7 +2941,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>会员id不存在</t>
         </is>
@@ -2951,7 +2956,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>{"member_id": "98989898","amount":600}</t>
         </is>
@@ -2976,32 +2981,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>会员id为字符串</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>{"member_id": "#member_id#","amount":600}</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
+      <c r="G9" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3016,7 +3021,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>会员id为小数</t>
         </is>
@@ -3031,7 +3036,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>{"member_id": 1.0, "amount":600}</t>
         </is>
@@ -3056,32 +3061,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>提现金额为0</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="10" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 0}</t>
         </is>
       </c>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H11" s="9" t="inlineStr">
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3096,32 +3101,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>提现金额为负数</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": -600}</t>
         </is>
       </c>
-      <c r="G12" s="9" t="inlineStr">
+      <c r="G12" s="10" t="inlineStr">
         <is>
           <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3136,7 +3141,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>提现金额为空</t>
         </is>
@@ -3151,7 +3156,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#}</t>
         </is>
@@ -3176,7 +3181,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>提现金额-3位小数</t>
         </is>
@@ -3191,7 +3196,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 600.222}</t>
         </is>
@@ -3216,32 +3221,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>提现金额-大于50万</t>
         </is>
       </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F15" s="8" t="inlineStr">
+      <c r="F15" s="9" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 500001}</t>
         </is>
       </c>
-      <c r="G15" s="9" t="inlineStr">
+      <c r="G15" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H15" s="9" t="inlineStr">
+      <c r="H15" s="10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3256,7 +3261,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>提现金额-非数字</t>
         </is>
@@ -3271,7 +3276,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": "5万"}</t>
         </is>
@@ -3300,7 +3305,7 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3308,7 +3313,7 @@
   <cols>
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="15.2222222222222" customWidth="1" min="5" max="5"/>
-    <col width="89.7777777777778" customWidth="1" style="1" min="6" max="6"/>
+    <col width="89.7777777777778" customWidth="1" style="6" min="6" max="6"/>
     <col width="41.6666666666667" customWidth="1" min="7" max="7"/>
     <col width="6.33333333333333" customWidth="1" min="8" max="8"/>
   </cols>
@@ -3319,37 +3324,37 @@
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -3369,22 +3374,22 @@
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>借款人正常登录</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
         </is>
@@ -3409,22 +3414,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>加标成功</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3454,22 +3459,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>加标失败—借款人id为空</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>{"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3494,22 +3499,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>加标失败—标题为空</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3534,22 +3539,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>加标失败—借款金额为空</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3574,22 +3579,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>加标失败—年利率为空</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3614,22 +3619,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>加标失败—借款期限为空</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3654,22 +3659,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>加标失败—借款期限类型为空</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
         </is>
@@ -3694,22 +3699,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>加标失败—竞标天数为空</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
         </is>
@@ -3734,22 +3739,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>加标失败—借款人id不是当前登录用户</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#+1,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3774,22 +3779,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>加标失败—借款金额为负数</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3814,22 +3819,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>加标失败—借款金额为小数</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F13" s="6" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3840,6 +3845,725 @@
         </is>
       </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <cols>
+    <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="31.7777777777778" customWidth="1" min="3" max="3"/>
+    <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
+    <col width="15.2222222222222" customWidth="1" min="5" max="5"/>
+    <col width="58" customWidth="1" min="6" max="6"/>
+    <col width="43.8888888888889" customWidth="1" min="7" max="7"/>
+    <col width="14.2222222222222" customWidth="1" min="8" max="8"/>
+    <col width="57.7777777777778" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="25" customHeight="1">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>审核通过</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK","status":2}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SELECT status FROM  futureloan.loan WHERE id=#loan_id#;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>审核不通过</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not": False}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK","status":5}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SELECT status FROM  futureloan.loan WHERE id=#loan_id#;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>项目不待审核状态</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"loan_id":#pass_loan_id#,"approved_or_not": False}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code": 2,"msg": "项目不在审核中状态"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>参数approved_or_not为空</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{ "code": 1,"msg": "approved_or_not为空"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>项目id为空</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"approved_or_not": True}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{ "code": 1,"msg": "项目id为空"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>项目id不存在</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#+10000,"approved_or_not": True}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "项目不存在"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="28.7777777777778" customWidth="1" min="3" max="3"/>
+    <col width="18.2222222222222" customWidth="1" min="5" max="5"/>
+    <col width="48.2222222222222" customWidth="1" min="6" max="6"/>
+    <col width="29.1111111111111" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="14.4" customHeight="1">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>管理员正常登录</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="72" customHeight="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>管理员加标</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":400,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>管理员审核</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>投资人正常登录</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#phone#","pwd":"#pwd#"}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="28.8" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>投资人正常投资</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#, "loan_id":#loan_id#,"amount":300}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>投资人id为空</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"amount":300}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"会员id为空"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>标id为空</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"amount":300}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"项目id为空"}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>投资金额为空</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#, "loan_id":#loan_id#}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"余额为空"}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>通过</t>
         </is>

--- a/2020_08_18/data/cases.xlsx
+++ b/2020_08_18/data/cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="audit" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="invest" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main_stream" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -22,13 +23,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <name val="等线"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -47,13 +73,6 @@
       <charset val="134"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
@@ -83,12 +102,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
     </font>
@@ -96,6 +109,14 @@
       <name val="等线"/>
       <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -110,8 +131,39 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,21 +184,22 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -175,16 +228,16 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -194,46 +247,6 @@
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -246,7 +259,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +289,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,19 +313,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,37 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,37 +397,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,64 +433,35 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -466,6 +492,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -486,6 +527,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,30 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -569,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -581,175 +607,187 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1070,7 +1108,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1082,52 +1120,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1137,12 +1175,12 @@
           <t>注册成功-带注册名</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" s="16" t="inlineStr">
+      <c r="E2" s="23" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1164,10 +1202,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1177,12 +1215,12 @@
           <t>成功-不带用户名</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" s="16" t="inlineStr">
+      <c r="E3" s="23" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1204,25 +1242,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C4" s="15" t="inlineStr">
+      <c r="C4" s="22" t="inlineStr">
         <is>
           <t>不输入手机号</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" s="17" t="inlineStr">
+      <c r="E4" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1232,7 +1270,7 @@
           <t>{"pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"手机号为空"}</t>
         </is>
@@ -1244,25 +1282,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C5" s="15" t="inlineStr">
+      <c r="C5" s="22" t="inlineStr">
         <is>
           <t>手机号长度10位</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" s="17" t="inlineStr">
+      <c r="E5" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1272,7 +1310,7 @@
           <t>{"mobile_phone":"1550000000","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1284,25 +1322,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C6" s="15" t="inlineStr">
+      <c r="C6" s="22" t="inlineStr">
         <is>
           <t>手机号长度12位</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" s="17" t="inlineStr">
+      <c r="E6" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1312,7 +1350,7 @@
           <t>{"mobile_phone":"155000000001","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式",}</t>
         </is>
@@ -1324,25 +1362,25 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="22" t="inlineStr">
         <is>
           <t>手机号含有非法字符</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" s="17" t="inlineStr">
+      <c r="E7" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1352,7 +1390,7 @@
           <t>{"mobile_phone":"1550000000q","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1364,25 +1402,25 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C8" s="15" t="inlineStr">
+      <c r="C8" s="22" t="inlineStr">
         <is>
           <t>已注册过的手机号</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" s="17" t="inlineStr">
+      <c r="E8" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1392,7 +1430,7 @@
           <t>{"mobile_phone":"15500000000","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"账号已存在"}</t>
         </is>
@@ -1404,25 +1442,25 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C9" s="15" t="inlineStr">
+      <c r="C9" s="22" t="inlineStr">
         <is>
           <t>密码7位</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E9" s="17" t="inlineStr">
+      <c r="E9" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1432,7 +1470,7 @@
           <t>{"mobile_phone":"15500056781","pwd":"1234567","type":1}</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1444,25 +1482,25 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C10" s="15" t="inlineStr">
+      <c r="C10" s="22" t="inlineStr">
         <is>
           <t>密码17位</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E10" s="17" t="inlineStr">
+      <c r="E10" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1472,7 +1510,7 @@
           <t>{"mobile_phone":"15500000001","pwd":"12345678901234567","type":1}</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1484,25 +1522,25 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C11" s="15" t="inlineStr">
+      <c r="C11" s="22" t="inlineStr">
         <is>
           <t>不输入密码</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E11" s="17" t="inlineStr">
+      <c r="E11" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1512,7 +1550,7 @@
           <t>{"mobile_phone":"13300000001","type":1}</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" s="10" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"密码为空"}</t>
         </is>
@@ -1524,35 +1562,35 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="n">
+      <c r="A12" s="25" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="B12" s="25" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C12" s="19" t="inlineStr">
+      <c r="C12" s="26" t="inlineStr">
         <is>
           <t>注册名11位</t>
         </is>
       </c>
-      <c r="D12" s="18" t="inlineStr">
+      <c r="D12" s="25" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="E12" s="27" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F12" s="21" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13303007856","pwd":"12345678","type":1,"reg_name":"12345678909991"}</t>
         </is>
       </c>
-      <c r="G12" s="18" t="inlineStr">
+      <c r="G12" s="25" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"用户昵称长度超过10位"}</t>
         </is>
@@ -1564,25 +1602,25 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" s="10" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C13" s="15" t="inlineStr">
+      <c r="C13" s="22" t="inlineStr">
         <is>
           <t>类型输入非0，1内容</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E13" s="17" t="inlineStr">
+      <c r="E13" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1592,7 +1630,7 @@
           <t>{"mobile_phone":"13300003456","pwd":"12345678","type":2}</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"不支持的用户类型"}</t>
         </is>
@@ -1604,25 +1642,25 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="10" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C14" s="15" t="inlineStr">
+      <c r="C14" s="22" t="inlineStr">
         <is>
           <t>不输入类型</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E14" s="17" t="inlineStr">
+      <c r="E14" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1632,7 +1670,7 @@
           <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -1675,72 +1713,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="18" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="10" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150","pwd":"12345678"}</t>
         </is>
@@ -1757,110 +1795,110 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="19" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="19" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="13" t="inlineStr">
+      <c r="D3" s="19" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="20" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F3" s="12" t="inlineStr">
+      <c r="F3" s="19" t="inlineStr">
         <is>
           <t>{"pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G3" s="10" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '手机号码为空'}</t>
         </is>
       </c>
-      <c r="H3" s="10" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="19" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="21" t="inlineStr">
         <is>
           <t>密码为空</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" s="13" t="inlineStr">
+      <c r="D4" s="19" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="20" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="F4" s="19" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150",}</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '密码为空'}</t>
         </is>
       </c>
-      <c r="H4" s="10" t="inlineStr">
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C5" s="15" t="inlineStr">
+      <c r="C5" s="22" t="inlineStr">
         <is>
           <t>手机号未注册</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" s="11" t="inlineStr">
+      <c r="D5" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="18" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="10" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878151","pwd":"12345666"}</t>
         </is>
@@ -1877,30 +1915,30 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C6" s="15" t="inlineStr">
+      <c r="C6" s="22" t="inlineStr">
         <is>
           <t>密码错误</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="18" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" s="10" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13641878150","pwd":"12345679"}</t>
         </is>
@@ -1917,30 +1955,30 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="22" t="inlineStr">
         <is>
           <t>手机号格式错误</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="18" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" s="10" t="inlineStr">
         <is>
           <t>{"mobile_phone":"12345678912","pwd":"12345678"}</t>
         </is>
@@ -1994,42 +2032,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -2044,7 +2082,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>充值成功-整数</t>
         </is>
@@ -2059,7 +2097,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600}</t>
         </is>
@@ -2084,7 +2122,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>充值成功-1位小数</t>
         </is>
@@ -2099,7 +2137,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.1}</t>
         </is>
@@ -2124,7 +2162,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>充值成功-2位小数</t>
         </is>
@@ -2139,7 +2177,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.22}</t>
         </is>
@@ -2164,7 +2202,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>充值成功-50万</t>
         </is>
@@ -2179,7 +2217,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":500000}</t>
         </is>
@@ -2204,7 +2242,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>会员id为空</t>
         </is>
@@ -2219,7 +2257,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>{"amount":600}</t>
         </is>
@@ -2244,7 +2282,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>id不是当前登录的用户</t>
         </is>
@@ -2259,7 +2297,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>{"member_id": "98989898","amount":600}</t>
         </is>
@@ -2276,40 +2314,40 @@
       </c>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="17" t="inlineStr">
         <is>
           <t>会员id为字符串</t>
         </is>
       </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="F8" s="17" t="inlineStr">
         <is>
           <t>{"member_id": "#member_id#","amount":600}</t>
         </is>
       </c>
-      <c r="G8" s="10" t="inlineStr">
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
-      <c r="H8" s="10" t="inlineStr">
+      <c r="H8" s="1" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -2324,7 +2362,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>会员id为小数</t>
         </is>
@@ -2339,7 +2377,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>{"member_id": float(#member_id#), "amount":600}</t>
         </is>
@@ -2356,40 +2394,40 @@
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="17" t="inlineStr">
         <is>
           <t>充值金额为0</t>
         </is>
       </c>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="F10" s="17" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 0}</t>
         </is>
       </c>
-      <c r="G10" s="10" t="inlineStr">
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="H10" s="1" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -2404,7 +2442,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>充值金额为负数</t>
         </is>
@@ -2419,7 +2457,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": -600}</t>
         </is>
@@ -2436,40 +2474,40 @@
       </c>
     </row>
     <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="17" t="inlineStr">
         <is>
           <t>充值金额为空</t>
         </is>
       </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="17" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#}</t>
         </is>
       </c>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"充值金额为空"}</t>
         </is>
       </c>
-      <c r="H12" s="10" t="inlineStr">
+      <c r="H12" s="1" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -2484,7 +2522,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>充值金额-3位小数</t>
         </is>
@@ -2499,7 +2537,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 600.222}</t>
         </is>
@@ -2524,7 +2562,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>充值金额-大于50万</t>
         </is>
@@ -2539,7 +2577,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 500001}</t>
         </is>
@@ -2564,7 +2602,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>充值金额-非数字</t>
         </is>
@@ -2579,7 +2617,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": "5万"}</t>
         </is>
@@ -2626,42 +2664,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -2673,20 +2711,20 @@
       </c>
     </row>
     <row r="2" ht="14.4" customHeight="1">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2696,7 +2734,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="16" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"#pwd#"}</t>
         </is>
@@ -2721,7 +2759,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>提现成功-整数</t>
         </is>
@@ -2736,7 +2774,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600}</t>
         </is>
@@ -2766,7 +2804,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>提现成功-1位小数</t>
         </is>
@@ -2781,7 +2819,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.1}</t>
         </is>
@@ -2811,7 +2849,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>提现成功-2位小数</t>
         </is>
@@ -2826,7 +2864,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.22}</t>
         </is>
@@ -2856,7 +2894,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>提现成功-50万</t>
         </is>
@@ -2871,7 +2909,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":500000}</t>
         </is>
@@ -2901,7 +2939,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>会员id为空</t>
         </is>
@@ -2916,7 +2954,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>{"amount":600}</t>
         </is>
@@ -2941,7 +2979,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>会员id不存在</t>
         </is>
@@ -2956,7 +2994,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="11" t="inlineStr">
         <is>
           <t>{"member_id": "98989898","amount":600}</t>
         </is>
@@ -2981,32 +3019,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="17" t="inlineStr">
         <is>
           <t>会员id为字符串</t>
         </is>
       </c>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="17" t="inlineStr">
         <is>
           <t>{"member_id": "#member_id#","amount":600}</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
+      <c r="H9" s="1" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3021,7 +3059,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>会员id为小数</t>
         </is>
@@ -3036,7 +3074,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="11" t="inlineStr">
         <is>
           <t>{"member_id": 1.0, "amount":600}</t>
         </is>
@@ -3061,32 +3099,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C11" s="17" t="inlineStr">
         <is>
           <t>提现金额为0</t>
         </is>
       </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E11" s="10" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr">
+      <c r="F11" s="17" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 0}</t>
         </is>
       </c>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H11" s="10" t="inlineStr">
+      <c r="H11" s="1" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3101,32 +3139,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="17" t="inlineStr">
         <is>
           <t>提现金额为负数</t>
         </is>
       </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="17" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": -600}</t>
         </is>
       </c>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
         </is>
       </c>
-      <c r="H12" s="10" t="inlineStr">
+      <c r="H12" s="1" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3141,7 +3179,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>提现金额为空</t>
         </is>
@@ -3156,7 +3194,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#}</t>
         </is>
@@ -3181,7 +3219,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>提现金额-3位小数</t>
         </is>
@@ -3196,7 +3234,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 600.222}</t>
         </is>
@@ -3221,32 +3259,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="C15" s="17" t="inlineStr">
         <is>
           <t>提现金额-大于50万</t>
         </is>
       </c>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E15" s="10" t="inlineStr">
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F15" s="9" t="inlineStr">
+      <c r="F15" s="17" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 500001}</t>
         </is>
       </c>
-      <c r="G15" s="10" t="inlineStr">
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H15" s="10" t="inlineStr">
+      <c r="H15" s="1" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3261,7 +3299,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t>提现金额-非数字</t>
         </is>
@@ -3276,7 +3314,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" s="11" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": "5万"}</t>
         </is>
@@ -3313,7 +3351,7 @@
   <cols>
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="15.2222222222222" customWidth="1" min="5" max="5"/>
-    <col width="89.7777777777778" customWidth="1" style="6" min="6" max="6"/>
+    <col width="89.7777777777778" customWidth="1" style="3" min="6" max="6"/>
     <col width="41.6666666666667" customWidth="1" min="7" max="7"/>
     <col width="6.33333333333333" customWidth="1" min="8" max="8"/>
   </cols>
@@ -3324,37 +3362,37 @@
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="15" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -3374,22 +3412,22 @@
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>借款人正常登录</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="11" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="13" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
         </is>
@@ -3414,22 +3452,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>加标成功</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="11" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3459,22 +3497,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>加标失败—借款人id为空</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>{"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3499,22 +3537,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>加标失败—标题为空</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3539,22 +3577,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>加标失败—借款金额为空</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="D6" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3579,22 +3617,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>加标失败—年利率为空</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3619,22 +3657,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>加标失败—借款期限为空</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="11" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3659,22 +3697,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>加标失败—借款期限类型为空</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
         </is>
@@ -3699,22 +3737,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>加标失败—竞标天数为空</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="D10" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
         </is>
@@ -3739,22 +3777,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>加标失败—借款人id不是当前登录用户</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#+1,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3779,22 +3817,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>加标失败—借款金额为负数</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="D12" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3819,22 +3857,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>加标失败—借款金额为小数</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D13" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E13" s="11" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3863,7 +3901,7 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3886,37 +3924,37 @@
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -3936,22 +3974,22 @@
           <t>audit</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>审核通过</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
         <is>
           <t>patch</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="11" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
         </is>
@@ -3986,17 +4024,17 @@
           <t>审核不通过</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="12" t="inlineStr">
         <is>
           <t>patch</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="11" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>{"loan_id":#loan_id#,"approved_or_not": False}</t>
         </is>
@@ -4031,7 +4069,7 @@
           <t>项目不待审核状态</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>patch</t>
         </is>
@@ -4071,7 +4109,7 @@
           <t>参数approved_or_not为空</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t>patch</t>
         </is>
@@ -4111,7 +4149,7 @@
           <t>项目id为空</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>patch</t>
         </is>
@@ -4161,7 +4199,7 @@
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>{"loan_id":#loan_id#+10000,"approved_or_not": True}</t>
         </is>
@@ -4191,14 +4229,14 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col width="28.7777777777778" customWidth="1" min="3" max="3"/>
     <col width="18.2222222222222" customWidth="1" min="5" max="5"/>
-    <col width="48.2222222222222" customWidth="1" min="6" max="6"/>
+    <col width="75.7777777777778" customWidth="1" min="6" max="6"/>
     <col width="29.1111111111111" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -4208,37 +4246,37 @@
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -4258,22 +4296,22 @@
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>管理员正常登录</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="11" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
         </is>
@@ -4298,22 +4336,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>管理员加标</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="11" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":400,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -4338,22 +4376,22 @@
           <t>audit</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>管理员审核</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
         <is>
           <t>patch</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="11" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
         </is>
@@ -4378,22 +4416,22 @@
           <t>login</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>投资人正常登录</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"#pwd#"}</t>
         </is>
@@ -4409,7 +4447,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="28.8" customHeight="1">
+    <row r="6" ht="14.4" customHeight="1">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -4418,22 +4456,22 @@
           <t>invest</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>投资人正常投资</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="D6" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>/member/invest</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#member_id#, "loan_id":#loan_id#,"amount":300}</t>
         </is>
@@ -4458,22 +4496,22 @@
           <t>invest</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>投资人id为空</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
         <is>
           <t>/member/invest</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>{"loan_id":#loan_id#,"amount":300}</t>
         </is>
@@ -4498,22 +4536,22 @@
           <t>invest</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>标id为空</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="11" t="inlineStr">
         <is>
           <t>/member/invest</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#member_id#,"amount":300}</t>
         </is>
@@ -4538,22 +4576,22 @@
           <t>invest</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>投资金额为空</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" s="12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>/member/invest</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="13" t="inlineStr">
         <is>
           <t>{"member_id":#member_id#, "loan_id":#loan_id#}</t>
         </is>
@@ -4564,6 +4602,569 @@
         </is>
       </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="22.6666666666667" customWidth="1" min="3" max="3"/>
+    <col width="30.6666666666667" customWidth="1" min="5" max="5"/>
+    <col width="79.5555555555556" customWidth="1" style="3" min="6" max="6"/>
+    <col width="23.5555555555556" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>register</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>管理员注册</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#admin_phone#","pwd":"12345678","type":0,"reg_name":"34254sdfs"}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.6" customHeight="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>管理员正常登录</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#admin_phone#","pwd":"12345678"}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="n"/>
+    </row>
+    <row r="4" ht="37" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>管理员加标</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":40000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="n"/>
+    </row>
+    <row r="5" ht="15.6" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>管理员审核</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="n"/>
+    </row>
+    <row r="6" ht="24" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>register</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>用户注册</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#phone#","pwd":"12345678","type":1,"reg_name":"34254sdfs"}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "OK"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I6" s="8" t="n"/>
+    </row>
+    <row r="7" ht="25" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>投资人正常登录</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="n"/>
+    </row>
+    <row r="8" ht="25" customFormat="1" customHeight="1" s="1">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>获取用户信息</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>/member/#member_id#/info</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="n"/>
+    </row>
+    <row r="9" ht="25" customHeight="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>更改昵称</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>/member/update</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#, "reg_name": "小柠檬666"}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="n"/>
+    </row>
+    <row r="10" ht="25" customHeight="1">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>充值</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":20000}</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="25" customHeight="1">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>投资人正常投资</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#, "loan_id":#loan_id#,"amount":300}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I11" s="8" t="n"/>
+    </row>
+    <row r="12" ht="25" customHeight="1">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>取现</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600}</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="n"/>
+    </row>
+    <row r="13" customFormat="1" s="2">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>loans</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>获取项目列表</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>/loans</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr">
+        <is>
+          <t>{"pageIndex":1,"pageSize":20}</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
